--- a/docs/PTA2_DDC_80/PTA2_DDC_80_01.08.24_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731780407.801225</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731780410.9212058</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731780407.801225.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731780410.9212058.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>290.03</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.39</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.6399999999999864</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731780422.8260422</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731780422.8260422.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731780422.8260422.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>288.85</v>
       </c>
-      <c r="J4" t="n">
-        <v>288.85</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>287.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731780430.3867643</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731780431.9399843</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731780430.3867643.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731780431.9399843.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>133.83</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>133.4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.4300000000000068</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -687,95 +721,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731780438.7091892</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731780438.7091892.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731780438.7091892.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>132.74</v>
       </c>
-      <c r="J6" t="n">
-        <v>132.74</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>132.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.6400000000000148</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731780453.5275567</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731780454.0010688</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780453.5275567.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780454.0010688.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6770</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6744.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>25.5</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -783,51 +829,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731780454.5239155</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731780455.2227092</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780454.5239155.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780455.2227092.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6749</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6754</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -835,95 +887,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731780460.3693047</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731780460.3693047.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731780460.3693047.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6720</v>
       </c>
-      <c r="J9" t="n">
-        <v>6720</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6687</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-33</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731780476.5323508</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731780478.0393164</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780476.5323508.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780478.0393164.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>516.65</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>515.15</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -931,95 +995,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731780484.2145329</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731780484.2145329.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731780484.2145329.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>513</v>
       </c>
-      <c r="J11" t="n">
-        <v>513</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>506.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-6.199999999999989</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731780499.9371393</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731780502.1306362</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780499.9371393.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731780502.1306362.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>233.13</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>232.69</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1027,95 +1103,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731780514.208484</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731780514.208484.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731780514.208484.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>230.67</v>
       </c>
-      <c r="J13" t="n">
-        <v>230.67</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>229.85</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.8199999999999932</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731780520.877114</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731780525.1344886</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780520.877114.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780525.1344886.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>1048.4</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1045.4</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>3</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1123,51 +1211,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731780528.9244146</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731780529.3581228</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780528.9244146.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780529.3581228.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1039.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1042.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>3.199999999999818</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1175,95 +1269,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731780541.8940747</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731780541.8940747.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731780541.8940747.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1028.8</v>
       </c>
-      <c r="J16" t="n">
-        <v>1028.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1030.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.799999999999955</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731780544.7504797</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731780545.9386125</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731780544.7504797.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731780545.9386125.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>130.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>129.44</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.960000000000008</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -1271,51 +1377,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731780546.3501177</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731780555.6361988</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731780546.3501177.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731780555.6361988.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>129.14</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>129.92</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.7800000000000011</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1323,95 +1435,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731780558.0563228</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731780558.0563228.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731780558.0563228.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>129.06</v>
       </c>
-      <c r="J19" t="n">
-        <v>129.06</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>128.64</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.4200000000000159</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731780568.0084126</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731780569.9353335</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731780568.0084126.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731780569.9353335.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>166.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>165.88</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.5200000000000102</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1419,139 +1543,157 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731780583.7785876</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731780583.7785876.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731780583.7785876.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>165.66</v>
       </c>
-      <c r="J21" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>164.66</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731780606.6039906</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731780606.6039906.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731780606.6039906.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>50.74</v>
       </c>
-      <c r="J22" t="n">
-        <v>50.74</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>50.57</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.1700000000000017</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731780613.3651085</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731780613.6998127</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780613.3651085.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780613.6998127.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1417.4</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>5</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1559,95 +1701,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731780629.31198</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731780629.31198.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731780629.31198.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1413.4</v>
       </c>
-      <c r="J24" t="n">
-        <v>1413.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1412.6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.8000000000001819</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731780637.3729365</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731780638.6330287</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731780637.3729365.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731780638.6330287.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>61.2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>60.87</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.3300000000000054</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -1655,51 +1809,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731780642.8314116</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731780644.9891276</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731780642.8314116.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731780644.9891276.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>61.29</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>61.26</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1707,95 +1867,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731780655.9443514</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731780655.9443514.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731780655.9443514.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>60.87</v>
       </c>
-      <c r="J27" t="n">
-        <v>60.87</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>60.68</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.1899999999999977</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731780661.546203</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731780663.6561303</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/SELG1731780661.546203.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/SELG1731780663.6561303.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>58.93</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>58.74</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1803,139 +1975,157 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731780670.13902</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731780670.13902.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731780670.13902.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>57.88</v>
       </c>
-      <c r="J29" t="n">
-        <v>57.88</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>57.2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.6799999999999997</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731780698.9310455</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731780698.9310455.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731780698.9310455.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>144.02</v>
       </c>
-      <c r="J30" t="n">
-        <v>144.02</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>142.98</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-1.04000000000002</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731780708.9341965</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731780715.476142</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780708.9341965.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780715.476142.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>21.475</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>21.267</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.208000000000002</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -1943,183 +2133,207 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731780722.7449791</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731780722.7449791.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731780722.7449791.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>21.104</v>
       </c>
-      <c r="J32" t="n">
-        <v>21.104</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>20.831</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.2729999999999997</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-1.29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731780739.2121124</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731780739.2121124.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731780739.2121124.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>681.55</v>
       </c>
-      <c r="J33" t="n">
-        <v>681.55</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>679.2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-2.349999999999909</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731780752.7382681</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731780752.7382681.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731780752.7382681.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>379.23</v>
       </c>
-      <c r="J34" t="n">
-        <v>379.23</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>378.22</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.009999999999991</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731780754.1743553</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731780754.5484955</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/FEES1731780754.1743553.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/FEES1731780754.5484955.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>0.0994</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>0.09976</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.0003599999999999992</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2127,51 +2341,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731780763.9892905</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731780768.066733</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/FEES1731780763.9892905.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/FEES1731780768.066733.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>0.1005</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>0.10014</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.0003599999999999992</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2179,95 +2399,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731780771.197679</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731780771.197679.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731780771.197679.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>0.09960000000000001</v>
       </c>
-      <c r="J37" t="n">
-        <v>0.09960000000000001</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.09927999999999999</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0003200000000000147</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731780780.483695</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731780789.5927396</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731780780.483695.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731780789.5927396.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>0.6028</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>0.6053000000000001</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.002500000000000058</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2275,95 +2507,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731780794.9377115</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731780794.9377115.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731780794.9377115.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>0.6024</v>
       </c>
-      <c r="J39" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.001100000000000101</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731780799.4639103</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731780801.225162</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780799.4639103.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780801.225162.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>3036.2</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>3031.55</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>4.649999999999636</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2371,51 +2615,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731780802.2997456</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731780804.8657987</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780802.2997456.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780804.8657987.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>3028.25</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>3030.65</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2423,51 +2673,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731780807.1788206</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731780807.3904932</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780807.1788206.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780807.3904932.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>3022</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>3026.9</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>4.900000000000091</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2475,51 +2731,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731780808.227168</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731780810.0615747</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780808.227168.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780810.0615747.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>3017.25</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>3021.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>4.550000000000182</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2527,51 +2789,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731780811.263157</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731780813.1892848</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780811.263157.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780813.1892848.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>3024</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>3022.15</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>1.849999999999909</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2579,51 +2847,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731780814.427326</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731780818.0485811</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780814.427326.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780818.0485811.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>3018.25</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>3008.6</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-9.650000000000091</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -2631,51 +2905,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731780818.2610383</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731780823.25049</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780818.2610383.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780823.25049.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>3004.3</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>2997.55</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-6.75</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -2683,51 +2963,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731780835.8067958</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731780838.0812976</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731780835.8067958.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731780838.0812976.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>34.61</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>34.935</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.3250000000000028</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -2735,51 +3021,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731780838.0962849</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731780838.2004821</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731780838.0962849.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731780838.2004821.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>34.935</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>34.74</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1950000000000003</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -2787,44 +3079,50 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731780839.1886492</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731780839.1886492.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731780839.1886492.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>34.545</v>
       </c>
-      <c r="J49" t="n">
-        <v>34.545</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>34.425</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -2907,19 +3205,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0007199999999999984</v>
+        <v>0.0003999999999999837</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002399999999999995</v>
+        <v>0.0001333333333333279</v>
       </c>
       <c r="E3" t="n">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -2929,19 +3227,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5200000000000031</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1733333333333344</v>
+        <v>0.1333333333333329</v>
       </c>
       <c r="E4" t="n">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -2951,19 +3249,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.740000000000009</v>
+        <v>1.319999999999993</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5800000000000031</v>
+        <v>0.4399999999999977</v>
       </c>
       <c r="E5" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="F5" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -2973,19 +3271,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.5</v>
+        <v>-12.5</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>6.833333333333333</v>
+        <v>-4.166666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.31</v>
+        <v>-0.18</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="7">
@@ -2995,19 +3293,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.199999999999818</v>
+        <v>7.999999999999773</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.066666666666606</v>
+        <v>2.666666666666591</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
@@ -3017,19 +3315,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3600000000000065</v>
+        <v>0.1700000000000088</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1200000000000022</v>
+        <v>0.05666666666666961</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
@@ -3039,19 +3337,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.208000000000002</v>
+        <v>-0.06499999999999773</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.104000000000001</v>
+        <v>-0.03249999999999886</v>
       </c>
       <c r="E9" t="n">
-        <v>0.97</v>
+        <v>-0.3200000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.48</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="10">
@@ -3061,19 +3359,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5200000000000102</v>
+        <v>-0.4799999999999898</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2600000000000051</v>
+        <v>-0.2399999999999949</v>
       </c>
       <c r="E10" t="n">
-        <v>0.31</v>
+        <v>-0.29</v>
       </c>
       <c r="F10" t="n">
-        <v>0.16</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="11">
@@ -3083,19 +3381,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1899999999999977</v>
+        <v>-0.490000000000002</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09499999999999886</v>
+        <v>-0.245000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.32</v>
+        <v>-0.8499999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.16</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="12">
@@ -3105,19 +3403,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6399999999999864</v>
+        <v>-0.4600000000000364</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3199999999999932</v>
+        <v>-0.2300000000000182</v>
       </c>
       <c r="E12" t="n">
-        <v>0.22</v>
+        <v>-0.16</v>
       </c>
       <c r="F12" t="n">
-        <v>0.11</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="13">
@@ -3127,19 +3425,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.5</v>
+        <v>-4.699999999999989</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.75</v>
+        <v>-2.349999999999994</v>
       </c>
       <c r="E13" t="n">
-        <v>0.29</v>
+        <v>-0.9199999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.14</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="14">
@@ -3149,19 +3447,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4399999999999977</v>
+        <v>-0.3799999999999955</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2199999999999989</v>
+        <v>-0.1899999999999977</v>
       </c>
       <c r="E14" t="n">
-        <v>0.19</v>
+        <v>-0.17</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15">
@@ -3171,19 +3469,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002500000000000058</v>
+        <v>0.001399999999999957</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001250000000000029</v>
+        <v>0.0006999999999999784</v>
       </c>
       <c r="E15" t="n">
-        <v>0.41</v>
+        <v>0.23</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="16">
@@ -3193,19 +3491,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4300000000000068</v>
+        <v>-0.210000000000008</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2150000000000034</v>
+        <v>-0.105000000000004</v>
       </c>
       <c r="E16" t="n">
-        <v>0.32</v>
+        <v>-0.16</v>
       </c>
       <c r="F16" t="n">
-        <v>0.16</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="17">
@@ -3215,19 +3513,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4.199999999999818</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>2.5</v>
+        <v>2.099999999999909</v>
       </c>
       <c r="E17" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="F17" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18">
@@ -3237,19 +3535,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.1700000000000017</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.1700000000000017</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="19">
@@ -3259,19 +3557,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.009999999999991</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.009999999999991</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="20">
@@ -3281,19 +3579,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-2.349999999999909</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-2.349999999999909</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="21">
@@ -3303,19 +3601,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-1.04000000000002</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-1.04000000000002</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.72</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="22">
